--- a/biology/Médecine/Voile_rouge/Voile_rouge.xlsx
+++ b/biology/Médecine/Voile_rouge/Voile_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En voltige aérienne, une accélération forte vers le haut peut faire monter trop de sang dans les yeux et le pilote, alors, voit tout rouge : c'est le voile rouge, lorsque la pression cardiaque n'est pas compensée par la pression interne de l'œil. Le voile rouge est subi par les pilotes lorsqu’ils sont en « g négatif ». Cette situation est mal tolérée car la pression du sang augmente dans la tête et dans les yeux. À cause de cette augmentation du volume de sang, le pilote voit au travers d’une sorte de brouillard rose. Si l’intensité de la force « g négative » est trop forte (supérieure à 5 g), des vaisseaux sanguins peuvent se rompre dans le cerveau et provoquer une hémorragie intracérébrale causant la plupart du temps la mort du pilote.
 </t>
